--- a/items.xlsx
+++ b/items.xlsx
@@ -336,7 +336,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>天道酬勤</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="B1" t="b">
@@ -344,184 +344,76 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>考研计划表，找出来修改执行</t>
-        </is>
-      </c>
-      <c r="B2" t="b">
-        <v>0</v>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>耳机转接口</t>
-        </is>
-      </c>
-      <c r="B3" t="b">
-        <v>0</v>
-      </c>
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>javaEE的书和作业</t>
-        </is>
-      </c>
-      <c r="B4" t="b">
-        <v>0</v>
-      </c>
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>吃早饭</t>
-        </is>
-      </c>
-      <c r="B5" t="b">
-        <v>1</v>
-      </c>
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>TED打卡</t>
-        </is>
-      </c>
-      <c r="B6" t="b">
-        <v>1</v>
-      </c>
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>50个单词打卡_艾宾浩斯</t>
-        </is>
-      </c>
-      <c r="B7" t="b">
-        <v>1</v>
-      </c>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>课表考勤</t>
-        </is>
-      </c>
-      <c r="B8" t="b">
-        <v>0</v>
-      </c>
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>检查姐姐论文20min</t>
-        </is>
-      </c>
-      <c r="B9" t="b">
-        <v>0</v>
-      </c>
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>汉字字帖_15min</t>
-        </is>
-      </c>
-      <c r="B10" t="b">
-        <v>1</v>
-      </c>
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>英文字帖_10min</t>
-        </is>
-      </c>
-      <c r="B11" t="b">
-        <v>0</v>
-      </c>
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>今日财务</t>
-        </is>
-      </c>
-      <c r="B12" t="b">
-        <v>0</v>
-      </c>
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>到图书馆，八点群里扣1</t>
-        </is>
-      </c>
-      <c r="B13" t="b">
-        <v>0</v>
-      </c>
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>周六周日健身</t>
-        </is>
-      </c>
-      <c r="B14" t="b">
-        <v>0</v>
-      </c>
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>毛概论文准备</t>
-        </is>
-      </c>
-      <c r="B15" t="b">
-        <v>0</v>
-      </c>
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>概率论第一讲</t>
-        </is>
-      </c>
-      <c r="B16" t="b">
-        <v>0</v>
-      </c>
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>编译原理第一讲</t>
-        </is>
-      </c>
-      <c r="B17" t="b">
-        <v>0</v>
-      </c>
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>语法打卡（周日补齐）</t>
-        </is>
-      </c>
-      <c r="B18" t="b">
-        <v>0</v>
-      </c>
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>黄皮书复习思路</t>
-        </is>
-      </c>
-      <c r="B19" t="b">
-        <v>0</v>
-      </c>
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
